--- a/Code/Results/Cases/Case_3_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.985513070044325</v>
+        <v>1.02657074974452</v>
       </c>
       <c r="D2">
-        <v>1.006540314369752</v>
+        <v>1.029448169621014</v>
       </c>
       <c r="E2">
-        <v>0.9937963231990954</v>
+        <v>1.026761413817863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039835614158854</v>
+        <v>1.029876236138195</v>
       </c>
       <c r="J2">
-        <v>1.008135888427206</v>
+        <v>1.031733452048337</v>
       </c>
       <c r="K2">
-        <v>1.017909278063362</v>
+        <v>1.032262051586634</v>
       </c>
       <c r="L2">
-        <v>1.005342767080478</v>
+        <v>1.029583116537974</v>
       </c>
       <c r="N2">
-        <v>1.009567557023575</v>
+        <v>1.033198631891732</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9925864102057433</v>
+        <v>1.027957283232099</v>
       </c>
       <c r="D3">
-        <v>1.011679439842817</v>
+        <v>1.030450420371354</v>
       </c>
       <c r="E3">
-        <v>0.9996098681340094</v>
+        <v>1.027949554640845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041942042188635</v>
+        <v>1.030171234074784</v>
       </c>
       <c r="J3">
-        <v>1.013281237906937</v>
+        <v>1.032757553557702</v>
       </c>
       <c r="K3">
-        <v>1.022165029686464</v>
+        <v>1.033071927337036</v>
       </c>
       <c r="L3">
-        <v>1.010247743205178</v>
+        <v>1.030577809862337</v>
       </c>
       <c r="N3">
-        <v>1.014720213489747</v>
+        <v>1.034224187742701</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9970257253482562</v>
+        <v>1.028852916152946</v>
       </c>
       <c r="D4">
-        <v>1.014905706781189</v>
+        <v>1.031097286991349</v>
       </c>
       <c r="E4">
-        <v>1.003265599568381</v>
+        <v>1.02871738055158</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043247131437983</v>
+        <v>1.030359620905389</v>
       </c>
       <c r="J4">
-        <v>1.01650582059536</v>
+        <v>1.033418279209637</v>
       </c>
       <c r="K4">
-        <v>1.024827501048608</v>
+        <v>1.033593713704261</v>
       </c>
       <c r="L4">
-        <v>1.013324770818806</v>
+        <v>1.031219902839855</v>
       </c>
       <c r="N4">
-        <v>1.017949375455452</v>
+        <v>1.034885851700849</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9988608338613402</v>
+        <v>1.029229075492366</v>
       </c>
       <c r="D5">
-        <v>1.016239457119049</v>
+        <v>1.031368836065361</v>
       </c>
       <c r="E5">
-        <v>1.004778399640259</v>
+        <v>1.029039943658292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043782477611692</v>
+        <v>1.030438222198111</v>
       </c>
       <c r="J5">
-        <v>1.017837585679676</v>
+        <v>1.033695588424513</v>
       </c>
       <c r="K5">
-        <v>1.025925971230327</v>
+        <v>1.033812535047879</v>
       </c>
       <c r="L5">
-        <v>1.014596331822388</v>
+        <v>1.031489473537567</v>
       </c>
       <c r="N5">
-        <v>1.019283031798944</v>
+        <v>1.035163554726617</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9991671768835086</v>
+        <v>1.029292213074184</v>
       </c>
       <c r="D6">
-        <v>1.016462107762051</v>
+        <v>1.031414407350773</v>
       </c>
       <c r="E6">
-        <v>1.00503103019228</v>
+        <v>1.029094089994467</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043871599065257</v>
+        <v>1.030451384753209</v>
       </c>
       <c r="J6">
-        <v>1.018059830555762</v>
+        <v>1.033742123004544</v>
       </c>
       <c r="K6">
-        <v>1.026109215717639</v>
+        <v>1.033849244666725</v>
       </c>
       <c r="L6">
-        <v>1.014808573088206</v>
+        <v>1.031534714330572</v>
       </c>
       <c r="N6">
-        <v>1.019505592288246</v>
+        <v>1.03521015539109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.997050366446659</v>
+        <v>1.02885794383873</v>
       </c>
       <c r="D7">
-        <v>1.014923615658469</v>
+        <v>1.031100916986562</v>
       </c>
       <c r="E7">
-        <v>1.003285906595614</v>
+        <v>1.028721691558155</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043254336376613</v>
+        <v>1.030360673522288</v>
       </c>
       <c r="J7">
-        <v>1.016523707851442</v>
+        <v>1.033421986431238</v>
       </c>
       <c r="K7">
-        <v>1.024842259429994</v>
+        <v>1.033596639714961</v>
       </c>
       <c r="L7">
-        <v>1.013341846546381</v>
+        <v>1.031223506287347</v>
       </c>
       <c r="N7">
-        <v>1.01796728811349</v>
+        <v>1.034889564187129</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9879331409442316</v>
+        <v>1.027039658922418</v>
       </c>
       <c r="D8">
-        <v>1.008298345901123</v>
+        <v>1.029787229756944</v>
       </c>
       <c r="E8">
-        <v>0.9957838146503912</v>
+        <v>1.02716315695721</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040559828258647</v>
+        <v>1.029976449700202</v>
       </c>
       <c r="J8">
-        <v>1.009897263151494</v>
+        <v>1.032079955184253</v>
       </c>
       <c r="K8">
-        <v>1.01936707195727</v>
+        <v>1.032536221981081</v>
       </c>
       <c r="L8">
-        <v>1.007021201361437</v>
+        <v>1.029919598821595</v>
       </c>
       <c r="N8">
-        <v>1.011331433102004</v>
+        <v>1.03354562710184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9707257148587072</v>
+        <v>1.023823508096779</v>
       </c>
       <c r="D9">
-        <v>0.9958078004128562</v>
+        <v>1.027459523327344</v>
       </c>
       <c r="E9">
-        <v>0.9816870663453044</v>
+        <v>1.024409134746481</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035340877817233</v>
+        <v>1.029280224870727</v>
       </c>
       <c r="J9">
-        <v>0.9973563303550143</v>
+        <v>1.029700123608938</v>
       </c>
       <c r="K9">
-        <v>1.008969261290138</v>
+        <v>1.030650215273988</v>
       </c>
       <c r="L9">
-        <v>0.9950844142646582</v>
+        <v>1.027609992884881</v>
       </c>
       <c r="N9">
-        <v>0.9987726907424885</v>
+        <v>1.031162415892718</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9583482908570636</v>
+        <v>1.021670915329391</v>
       </c>
       <c r="D10">
-        <v>0.9868427055176908</v>
+        <v>1.025898907296865</v>
       </c>
       <c r="E10">
-        <v>0.9715973795645577</v>
+        <v>1.022567705555591</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031502025209103</v>
+        <v>1.028803107682342</v>
       </c>
       <c r="J10">
-        <v>0.9883177992552797</v>
+        <v>1.028103242524463</v>
       </c>
       <c r="K10">
-        <v>1.001453653201976</v>
+        <v>1.029380988395041</v>
       </c>
       <c r="L10">
-        <v>0.9864991133665495</v>
+        <v>1.026061992769479</v>
       </c>
       <c r="N10">
-        <v>0.9897213238918582</v>
+        <v>1.029563267053938</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9527376456979414</v>
+        <v>1.020736724342809</v>
       </c>
       <c r="D11">
-        <v>0.9827860537490127</v>
+        <v>1.025221009557202</v>
       </c>
       <c r="E11">
-        <v>0.9670376728359429</v>
+        <v>1.021769006131069</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029743259500808</v>
+        <v>1.028593417266479</v>
       </c>
       <c r="J11">
-        <v>0.9842179114311311</v>
+        <v>1.027409271391313</v>
       </c>
       <c r="K11">
-        <v>0.998040068816902</v>
+        <v>1.028828538046974</v>
       </c>
       <c r="L11">
-        <v>0.9826091836137716</v>
+        <v>1.025389680709211</v>
       </c>
       <c r="N11">
-        <v>0.9856156137567356</v>
+        <v>1.028868310402179</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9506122936918061</v>
+        <v>1.020389401062325</v>
       </c>
       <c r="D12">
-        <v>0.981250693095251</v>
+        <v>1.024968882635891</v>
       </c>
       <c r="E12">
-        <v>0.9653127061820856</v>
+        <v>1.021472126078099</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029074371653412</v>
+        <v>1.028515062214884</v>
       </c>
       <c r="J12">
-        <v>0.982664571799384</v>
+        <v>1.0271511175214</v>
       </c>
       <c r="K12">
-        <v>0.9967461368721588</v>
+        <v>1.028622899020731</v>
       </c>
       <c r="L12">
-        <v>0.9811360630624864</v>
+        <v>1.025139646413813</v>
       </c>
       <c r="N12">
-        <v>0.9840600682045407</v>
+        <v>1.02860978992416</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9510701208691378</v>
+        <v>1.020463917821952</v>
       </c>
       <c r="D13">
-        <v>0.9815813646708891</v>
+        <v>1.025022979509859</v>
       </c>
       <c r="E13">
-        <v>0.9656841790812206</v>
+        <v>1.021535817327952</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029218575753242</v>
+        <v>1.028531890784733</v>
       </c>
       <c r="J13">
-        <v>0.982999190334539</v>
+        <v>1.02720650977135</v>
       </c>
       <c r="K13">
-        <v>0.9970249008201518</v>
+        <v>1.028667029005494</v>
       </c>
       <c r="L13">
-        <v>0.981453370341052</v>
+        <v>1.025193293614158</v>
       </c>
       <c r="N13">
-        <v>0.9843951619363972</v>
+        <v>1.028665260837459</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.952562828503316</v>
+        <v>1.020708021125229</v>
       </c>
       <c r="D14">
-        <v>0.9826597368588693</v>
+        <v>1.025200175330427</v>
       </c>
       <c r="E14">
-        <v>0.9668957412031589</v>
+        <v>1.021744470195449</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02968829422512</v>
+        <v>1.028586949943402</v>
       </c>
       <c r="J14">
-        <v>0.9840901488145652</v>
+        <v>1.027387940134569</v>
       </c>
       <c r="K14">
-        <v>0.9979336546452949</v>
+        <v>1.028811548743326</v>
       </c>
       <c r="L14">
-        <v>0.9824880053347484</v>
+        <v>1.025369019098807</v>
       </c>
       <c r="N14">
-        <v>0.9854876697025993</v>
+        <v>1.028846948852604</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9534769460785326</v>
+        <v>1.020858378194402</v>
       </c>
       <c r="D15">
-        <v>0.9833203022394575</v>
+        <v>1.025309308271951</v>
       </c>
       <c r="E15">
-        <v>0.9676379943897156</v>
+        <v>1.021873000465981</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029975600190475</v>
+        <v>1.028620811817568</v>
       </c>
       <c r="J15">
-        <v>0.9847582081875157</v>
+        <v>1.027499674593086</v>
       </c>
       <c r="K15">
-        <v>0.9984900603015922</v>
+        <v>1.028900534454757</v>
       </c>
       <c r="L15">
-        <v>0.9831216631635584</v>
+        <v>1.025477248465743</v>
       </c>
       <c r="N15">
-        <v>0.9861566777964871</v>
+        <v>1.028958841986868</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9587150648459674</v>
+        <v>1.021732869578241</v>
       </c>
       <c r="D16">
-        <v>0.987108062179512</v>
+        <v>1.025943851703214</v>
       </c>
       <c r="E16">
-        <v>0.9718957559408128</v>
+        <v>1.02262068377562</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031616624169724</v>
+        <v>1.028816958787177</v>
       </c>
       <c r="J16">
-        <v>0.9885857679133792</v>
+        <v>1.028149245786212</v>
       </c>
       <c r="K16">
-        <v>1.00167667708922</v>
+        <v>1.029417591993735</v>
       </c>
       <c r="L16">
-        <v>0.9867534507435941</v>
+        <v>1.026106569010091</v>
       </c>
       <c r="N16">
-        <v>0.9899896730961886</v>
+        <v>1.029609335645595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.961931178414523</v>
+        <v>1.022280846641503</v>
       </c>
       <c r="D17">
-        <v>0.9894357206470046</v>
+        <v>1.026341308166977</v>
       </c>
       <c r="E17">
-        <v>0.9745137041114135</v>
+        <v>1.02308932127679</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032619418636253</v>
+        <v>1.028939166698063</v>
       </c>
       <c r="J17">
-        <v>0.9909351969843709</v>
+        <v>1.028556028950514</v>
       </c>
       <c r="K17">
-        <v>1.003631550613977</v>
+        <v>1.029741158440389</v>
       </c>
       <c r="L17">
-        <v>0.988983861131747</v>
+        <v>1.026500781769153</v>
       </c>
       <c r="N17">
-        <v>0.9923424386259445</v>
+        <v>1.030016696488649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9637831168272573</v>
+        <v>1.022600269854209</v>
       </c>
       <c r="D18">
-        <v>0.9907767171285278</v>
+        <v>1.026572931518377</v>
       </c>
       <c r="E18">
-        <v>0.9760224928302524</v>
+        <v>1.023362539835182</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033195100715165</v>
+        <v>1.029010149943419</v>
       </c>
       <c r="J18">
-        <v>0.9922878033825591</v>
+        <v>1.028793056734351</v>
       </c>
       <c r="K18">
-        <v>1.004756578598132</v>
+        <v>1.029929612927563</v>
       </c>
       <c r="L18">
-        <v>0.9902683556365904</v>
+        <v>1.026730525021819</v>
       </c>
       <c r="N18">
-        <v>0.9936969658803642</v>
+        <v>1.030254060879127</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9644106160619302</v>
+        <v>1.02270915077278</v>
       </c>
       <c r="D19">
-        <v>0.9912311967812008</v>
+        <v>1.026651874223858</v>
       </c>
       <c r="E19">
-        <v>0.9765339353070108</v>
+        <v>1.023455678440491</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033389858963256</v>
+        <v>1.029034302803138</v>
       </c>
       <c r="J19">
-        <v>0.992746062703964</v>
+        <v>1.028873836188765</v>
       </c>
       <c r="K19">
-        <v>1.005137660998288</v>
+        <v>1.029993824274531</v>
       </c>
       <c r="L19">
-        <v>0.9907036078523347</v>
+        <v>1.02680882869909</v>
       </c>
       <c r="N19">
-        <v>0.9941558759825687</v>
+        <v>1.030334955049631</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9615886231733802</v>
+        <v>1.022222074889021</v>
       </c>
       <c r="D20">
-        <v>0.9891877266116764</v>
+        <v>1.026298686214701</v>
       </c>
       <c r="E20">
-        <v>0.9742347251189583</v>
+        <v>1.023039054366355</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032512790611471</v>
+        <v>1.02892608583922</v>
       </c>
       <c r="J20">
-        <v>0.9906849811139449</v>
+        <v>1.028512410028199</v>
       </c>
       <c r="K20">
-        <v>1.003423399068612</v>
+        <v>1.029706471433395</v>
       </c>
       <c r="L20">
-        <v>0.9887462782020634</v>
+        <v>1.026458506609293</v>
       </c>
       <c r="N20">
-        <v>0.9920918674202823</v>
+        <v>1.029973015622461</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9521244347482773</v>
+        <v>1.020636147763931</v>
       </c>
       <c r="D21">
-        <v>0.9823429908434878</v>
+        <v>1.025148004595196</v>
       </c>
       <c r="E21">
-        <v>0.9665398528353254</v>
+        <v>1.021683032895092</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029550414162697</v>
+        <v>1.028570749289733</v>
       </c>
       <c r="J21">
-        <v>0.9837697511955019</v>
+        <v>1.027334524001272</v>
       </c>
       <c r="K21">
-        <v>0.9976667840781631</v>
+        <v>1.028769003303035</v>
       </c>
       <c r="L21">
-        <v>0.9821841304838428</v>
+        <v>1.025317280852826</v>
       </c>
       <c r="N21">
-        <v>0.985166817082167</v>
+        <v>1.028793456862271</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9459327883128931</v>
+        <v>1.019637139242118</v>
       </c>
       <c r="D22">
-        <v>0.9778729518619881</v>
+        <v>1.024422640080926</v>
       </c>
       <c r="E22">
-        <v>0.9615191963655665</v>
+        <v>1.020829245222318</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027596915468827</v>
+        <v>1.028344634122517</v>
       </c>
       <c r="J22">
-        <v>0.979244162796668</v>
+        <v>1.026591727211807</v>
       </c>
       <c r="K22">
-        <v>0.9938958740553238</v>
+        <v>1.028177064904007</v>
       </c>
       <c r="L22">
-        <v>0.9778935517770181</v>
+        <v>1.024597964623779</v>
       </c>
       <c r="N22">
-        <v>0.9806348018287148</v>
+        <v>1.028049605216165</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9492392780260266</v>
+        <v>1.020166912481828</v>
       </c>
       <c r="D23">
-        <v>0.9802592299516734</v>
+        <v>1.024807349553865</v>
       </c>
       <c r="E23">
-        <v>0.964199016084364</v>
+        <v>1.021281969926988</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0286415287061</v>
+        <v>1.028464758621441</v>
       </c>
       <c r="J23">
-        <v>0.9816610283018625</v>
+        <v>1.026985709244336</v>
       </c>
       <c r="K23">
-        <v>0.9959100199307512</v>
+        <v>1.028491102277542</v>
       </c>
       <c r="L23">
-        <v>0.9801845368792487</v>
+        <v>1.024979458224973</v>
       </c>
       <c r="N23">
-        <v>0.9830550995601449</v>
+        <v>1.02844414674837</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9617434829395133</v>
+        <v>1.022248631940323</v>
       </c>
       <c r="D24">
-        <v>0.9892998358406746</v>
+        <v>1.026317945878036</v>
       </c>
       <c r="E24">
-        <v>0.9743608398164729</v>
+        <v>1.023061768220789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03256099967073</v>
+        <v>1.028931997438964</v>
       </c>
       <c r="J24">
-        <v>0.9907980976433881</v>
+        <v>1.028532120289565</v>
       </c>
       <c r="K24">
-        <v>1.00351750066475</v>
+        <v>1.029722145852951</v>
       </c>
       <c r="L24">
-        <v>0.9888536824148146</v>
+        <v>1.026477609535238</v>
       </c>
       <c r="N24">
-        <v>0.9922051445881722</v>
+        <v>1.029992753874659</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9753228118686879</v>
+        <v>1.024656430660462</v>
       </c>
       <c r="D25">
-        <v>0.9991422095835065</v>
+        <v>1.028062830194737</v>
       </c>
       <c r="E25">
-        <v>0.9854451789419918</v>
+        <v>1.025122051540598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036750034062439</v>
+        <v>1.029462495579617</v>
       </c>
       <c r="J25">
-        <v>1.000710189782291</v>
+        <v>1.030317169452591</v>
       </c>
       <c r="K25">
-        <v>1.011753856253871</v>
+        <v>1.031139875397768</v>
       </c>
       <c r="L25">
-        <v>0.998273721556739</v>
+        <v>1.028208521096283</v>
       </c>
       <c r="N25">
-        <v>1.002131313034845</v>
+        <v>1.031780338012245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_142/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02657074974452</v>
+        <v>0.985513070044326</v>
       </c>
       <c r="D2">
-        <v>1.029448169621014</v>
+        <v>1.006540314369753</v>
       </c>
       <c r="E2">
-        <v>1.026761413817863</v>
+        <v>0.9937963231990962</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029876236138195</v>
+        <v>1.039835614158855</v>
       </c>
       <c r="J2">
-        <v>1.031733452048337</v>
+        <v>1.008135888427207</v>
       </c>
       <c r="K2">
-        <v>1.032262051586634</v>
+        <v>1.017909278063363</v>
       </c>
       <c r="L2">
-        <v>1.029583116537974</v>
+        <v>1.005342767080478</v>
       </c>
       <c r="N2">
-        <v>1.033198631891732</v>
+        <v>1.009567557023576</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027957283232099</v>
+        <v>0.9925864102057408</v>
       </c>
       <c r="D3">
-        <v>1.030450420371354</v>
+        <v>1.011679439842815</v>
       </c>
       <c r="E3">
-        <v>1.027949554640845</v>
+        <v>0.9996098681340071</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030171234074784</v>
+        <v>1.041942042188634</v>
       </c>
       <c r="J3">
-        <v>1.032757553557702</v>
+        <v>1.013281237906934</v>
       </c>
       <c r="K3">
-        <v>1.033071927337036</v>
+        <v>1.022165029686461</v>
       </c>
       <c r="L3">
-        <v>1.030577809862337</v>
+        <v>1.010247743205176</v>
       </c>
       <c r="N3">
-        <v>1.034224187742701</v>
+        <v>1.014720213489744</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028852916152946</v>
+        <v>0.9970257253482552</v>
       </c>
       <c r="D4">
-        <v>1.031097286991349</v>
+        <v>1.014905706781188</v>
       </c>
       <c r="E4">
-        <v>1.02871738055158</v>
+        <v>1.00326559956838</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030359620905389</v>
+        <v>1.043247131437982</v>
       </c>
       <c r="J4">
-        <v>1.033418279209637</v>
+        <v>1.016505820595359</v>
       </c>
       <c r="K4">
-        <v>1.033593713704261</v>
+        <v>1.024827501048606</v>
       </c>
       <c r="L4">
-        <v>1.031219902839855</v>
+        <v>1.013324770818805</v>
       </c>
       <c r="N4">
-        <v>1.034885851700849</v>
+        <v>1.017949375455452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029229075492366</v>
+        <v>0.9988608338613401</v>
       </c>
       <c r="D5">
-        <v>1.031368836065361</v>
+        <v>1.016239457119049</v>
       </c>
       <c r="E5">
-        <v>1.029039943658292</v>
+        <v>1.004778399640259</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030438222198111</v>
+        <v>1.043782477611692</v>
       </c>
       <c r="J5">
-        <v>1.033695588424513</v>
+        <v>1.017837585679676</v>
       </c>
       <c r="K5">
-        <v>1.033812535047879</v>
+        <v>1.025925971230327</v>
       </c>
       <c r="L5">
-        <v>1.031489473537567</v>
+        <v>1.014596331822388</v>
       </c>
       <c r="N5">
-        <v>1.035163554726617</v>
+        <v>1.019283031798944</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029292213074184</v>
+        <v>0.9991671768835085</v>
       </c>
       <c r="D6">
-        <v>1.031414407350773</v>
+        <v>1.016462107762051</v>
       </c>
       <c r="E6">
-        <v>1.029094089994467</v>
+        <v>1.00503103019228</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030451384753209</v>
+        <v>1.043871599065257</v>
       </c>
       <c r="J6">
-        <v>1.033742123004544</v>
+        <v>1.018059830555762</v>
       </c>
       <c r="K6">
-        <v>1.033849244666725</v>
+        <v>1.02610921571764</v>
       </c>
       <c r="L6">
-        <v>1.031534714330572</v>
+        <v>1.014808573088206</v>
       </c>
       <c r="N6">
-        <v>1.03521015539109</v>
+        <v>1.019505592288246</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02885794383873</v>
+        <v>0.9970503664466578</v>
       </c>
       <c r="D7">
-        <v>1.031100916986562</v>
+        <v>1.014923615658468</v>
       </c>
       <c r="E7">
-        <v>1.028721691558155</v>
+        <v>1.003285906595613</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030360673522288</v>
+        <v>1.043254336376613</v>
       </c>
       <c r="J7">
-        <v>1.033421986431238</v>
+        <v>1.016523707851441</v>
       </c>
       <c r="K7">
-        <v>1.033596639714961</v>
+        <v>1.024842259429993</v>
       </c>
       <c r="L7">
-        <v>1.031223506287347</v>
+        <v>1.013341846546379</v>
       </c>
       <c r="N7">
-        <v>1.034889564187129</v>
+        <v>1.017967288113489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027039658922418</v>
+        <v>0.9879331409442312</v>
       </c>
       <c r="D8">
-        <v>1.029787229756944</v>
+        <v>1.008298345901123</v>
       </c>
       <c r="E8">
-        <v>1.02716315695721</v>
+        <v>0.9957838146503908</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029976449700202</v>
+        <v>1.040559828258647</v>
       </c>
       <c r="J8">
-        <v>1.032079955184253</v>
+        <v>1.009897263151494</v>
       </c>
       <c r="K8">
-        <v>1.032536221981081</v>
+        <v>1.01936707195727</v>
       </c>
       <c r="L8">
-        <v>1.029919598821595</v>
+        <v>1.007021201361436</v>
       </c>
       <c r="N8">
-        <v>1.03354562710184</v>
+        <v>1.011331433102004</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023823508096779</v>
+        <v>0.9707257148587057</v>
       </c>
       <c r="D9">
-        <v>1.027459523327344</v>
+        <v>0.9958078004128547</v>
       </c>
       <c r="E9">
-        <v>1.024409134746481</v>
+        <v>0.9816870663453029</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029280224870727</v>
+        <v>1.035340877817232</v>
       </c>
       <c r="J9">
-        <v>1.029700123608938</v>
+        <v>0.9973563303550127</v>
       </c>
       <c r="K9">
-        <v>1.030650215273988</v>
+        <v>1.008969261290136</v>
       </c>
       <c r="L9">
-        <v>1.027609992884881</v>
+        <v>0.9950844142646569</v>
       </c>
       <c r="N9">
-        <v>1.031162415892718</v>
+        <v>0.9987726907424871</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.021670915329391</v>
+        <v>0.9583482908570626</v>
       </c>
       <c r="D10">
-        <v>1.025898907296865</v>
+        <v>0.9868427055176898</v>
       </c>
       <c r="E10">
-        <v>1.022567705555591</v>
+        <v>0.9715973795645565</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028803107682342</v>
+        <v>1.031502025209102</v>
       </c>
       <c r="J10">
-        <v>1.028103242524463</v>
+        <v>0.9883177992552785</v>
       </c>
       <c r="K10">
-        <v>1.029380988395041</v>
+        <v>1.001453653201975</v>
       </c>
       <c r="L10">
-        <v>1.026061992769479</v>
+        <v>0.9864991133665483</v>
       </c>
       <c r="N10">
-        <v>1.029563267053938</v>
+        <v>0.989721323891857</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020736724342809</v>
+        <v>0.9527376456979406</v>
       </c>
       <c r="D11">
-        <v>1.025221009557202</v>
+        <v>0.9827860537490122</v>
       </c>
       <c r="E11">
-        <v>1.021769006131069</v>
+        <v>0.9670376728359419</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028593417266479</v>
+        <v>1.029743259500807</v>
       </c>
       <c r="J11">
-        <v>1.027409271391313</v>
+        <v>0.9842179114311304</v>
       </c>
       <c r="K11">
-        <v>1.028828538046974</v>
+        <v>0.9980400688169015</v>
       </c>
       <c r="L11">
-        <v>1.025389680709211</v>
+        <v>0.9826091836137705</v>
       </c>
       <c r="N11">
-        <v>1.028868310402179</v>
+        <v>0.985615613756735</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020389401062325</v>
+        <v>0.9506122936918082</v>
       </c>
       <c r="D12">
-        <v>1.024968882635891</v>
+        <v>0.9812506930952526</v>
       </c>
       <c r="E12">
-        <v>1.021472126078099</v>
+        <v>0.9653127061820872</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028515062214884</v>
+        <v>1.029074371653413</v>
       </c>
       <c r="J12">
-        <v>1.0271511175214</v>
+        <v>0.9826645717993858</v>
       </c>
       <c r="K12">
-        <v>1.028622899020731</v>
+        <v>0.9967461368721603</v>
       </c>
       <c r="L12">
-        <v>1.025139646413813</v>
+        <v>0.9811360630624881</v>
       </c>
       <c r="N12">
-        <v>1.02860978992416</v>
+        <v>0.9840600682045427</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020463917821952</v>
+        <v>0.9510701208691368</v>
       </c>
       <c r="D13">
-        <v>1.025022979509859</v>
+        <v>0.9815813646708881</v>
       </c>
       <c r="E13">
-        <v>1.021535817327952</v>
+        <v>0.9656841790812196</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028531890784733</v>
+        <v>1.029218575753241</v>
       </c>
       <c r="J13">
-        <v>1.02720650977135</v>
+        <v>0.9829991903345376</v>
       </c>
       <c r="K13">
-        <v>1.028667029005494</v>
+        <v>0.9970249008201508</v>
       </c>
       <c r="L13">
-        <v>1.025193293614158</v>
+        <v>0.9814533703410511</v>
       </c>
       <c r="N13">
-        <v>1.028665260837459</v>
+        <v>0.9843951619363961</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020708021125229</v>
+        <v>0.952562828503317</v>
       </c>
       <c r="D14">
-        <v>1.025200175330427</v>
+        <v>0.9826597368588699</v>
       </c>
       <c r="E14">
-        <v>1.021744470195449</v>
+        <v>0.9668957412031599</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028586949943402</v>
+        <v>1.02968829422512</v>
       </c>
       <c r="J14">
-        <v>1.027387940134569</v>
+        <v>0.9840901488145659</v>
       </c>
       <c r="K14">
-        <v>1.028811548743326</v>
+        <v>0.9979336546452955</v>
       </c>
       <c r="L14">
-        <v>1.025369019098807</v>
+        <v>0.9824880053347491</v>
       </c>
       <c r="N14">
-        <v>1.028846948852604</v>
+        <v>0.9854876697026006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020858378194402</v>
+        <v>0.9534769460785358</v>
       </c>
       <c r="D15">
-        <v>1.025309308271951</v>
+        <v>0.9833203022394602</v>
       </c>
       <c r="E15">
-        <v>1.021873000465981</v>
+        <v>0.9676379943897185</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028620811817568</v>
+        <v>1.029975600190476</v>
       </c>
       <c r="J15">
-        <v>1.027499674593086</v>
+        <v>0.9847582081875187</v>
       </c>
       <c r="K15">
-        <v>1.028900534454757</v>
+        <v>0.9984900603015949</v>
       </c>
       <c r="L15">
-        <v>1.025477248465743</v>
+        <v>0.9831216631635612</v>
       </c>
       <c r="N15">
-        <v>1.028958841986868</v>
+        <v>0.9861566777964903</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.021732869578241</v>
+        <v>0.9587150648459669</v>
       </c>
       <c r="D16">
-        <v>1.025943851703214</v>
+        <v>0.9871080621795115</v>
       </c>
       <c r="E16">
-        <v>1.02262068377562</v>
+        <v>0.971895755940812</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028816958787177</v>
+        <v>1.031616624169723</v>
       </c>
       <c r="J16">
-        <v>1.028149245786212</v>
+        <v>0.9885857679133785</v>
       </c>
       <c r="K16">
-        <v>1.029417591993735</v>
+        <v>1.001676677089219</v>
       </c>
       <c r="L16">
-        <v>1.026106569010091</v>
+        <v>0.9867534507435933</v>
       </c>
       <c r="N16">
-        <v>1.029609335645595</v>
+        <v>0.9899896730961883</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022280846641503</v>
+        <v>0.9619311784145239</v>
       </c>
       <c r="D17">
-        <v>1.026341308166977</v>
+        <v>0.9894357206470054</v>
       </c>
       <c r="E17">
-        <v>1.02308932127679</v>
+        <v>0.9745137041114141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028939166698063</v>
+        <v>1.032619418636254</v>
       </c>
       <c r="J17">
-        <v>1.028556028950514</v>
+        <v>0.9909351969843717</v>
       </c>
       <c r="K17">
-        <v>1.029741158440389</v>
+        <v>1.003631550613977</v>
       </c>
       <c r="L17">
-        <v>1.026500781769153</v>
+        <v>0.9889838611317475</v>
       </c>
       <c r="N17">
-        <v>1.030016696488649</v>
+        <v>0.9923424386259453</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022600269854209</v>
+        <v>0.9637831168272564</v>
       </c>
       <c r="D18">
-        <v>1.026572931518377</v>
+        <v>0.9907767171285269</v>
       </c>
       <c r="E18">
-        <v>1.023362539835182</v>
+        <v>0.9760224928302516</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029010149943419</v>
+        <v>1.033195100715165</v>
       </c>
       <c r="J18">
-        <v>1.028793056734351</v>
+        <v>0.9922878033825583</v>
       </c>
       <c r="K18">
-        <v>1.029929612927563</v>
+        <v>1.004756578598131</v>
       </c>
       <c r="L18">
-        <v>1.026730525021819</v>
+        <v>0.9902683556365897</v>
       </c>
       <c r="N18">
-        <v>1.030254060879127</v>
+        <v>0.9936969658803635</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02270915077278</v>
+        <v>0.9644106160619271</v>
       </c>
       <c r="D19">
-        <v>1.026651874223858</v>
+        <v>0.991231196781198</v>
       </c>
       <c r="E19">
-        <v>1.023455678440491</v>
+        <v>0.9765339353070079</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029034302803138</v>
+        <v>1.033389858963254</v>
       </c>
       <c r="J19">
-        <v>1.028873836188765</v>
+        <v>0.9927460627039609</v>
       </c>
       <c r="K19">
-        <v>1.029993824274531</v>
+        <v>1.005137660998285</v>
       </c>
       <c r="L19">
-        <v>1.02680882869909</v>
+        <v>0.9907036078523318</v>
       </c>
       <c r="N19">
-        <v>1.030334955049631</v>
+        <v>0.9941558759825656</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022222074889021</v>
+        <v>0.9615886231733781</v>
       </c>
       <c r="D20">
-        <v>1.026298686214701</v>
+        <v>0.9891877266116746</v>
       </c>
       <c r="E20">
-        <v>1.023039054366355</v>
+        <v>0.9742347251189563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02892608583922</v>
+        <v>1.032512790611471</v>
       </c>
       <c r="J20">
-        <v>1.028512410028199</v>
+        <v>0.9906849811139428</v>
       </c>
       <c r="K20">
-        <v>1.029706471433395</v>
+        <v>1.00342339906861</v>
       </c>
       <c r="L20">
-        <v>1.026458506609293</v>
+        <v>0.9887462782020615</v>
       </c>
       <c r="N20">
-        <v>1.029973015622461</v>
+        <v>0.9920918674202803</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020636147763931</v>
+        <v>0.952124434748277</v>
       </c>
       <c r="D21">
-        <v>1.025148004595196</v>
+        <v>0.9823429908434875</v>
       </c>
       <c r="E21">
-        <v>1.021683032895092</v>
+        <v>0.9665398528353248</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028570749289733</v>
+        <v>1.029550414162697</v>
       </c>
       <c r="J21">
-        <v>1.027334524001272</v>
+        <v>0.9837697511955017</v>
       </c>
       <c r="K21">
-        <v>1.028769003303035</v>
+        <v>0.9976667840781629</v>
       </c>
       <c r="L21">
-        <v>1.025317280852826</v>
+        <v>0.9821841304838423</v>
       </c>
       <c r="N21">
-        <v>1.028793456862271</v>
+        <v>0.9851668170821672</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019637139242118</v>
+        <v>0.9459327883128932</v>
       </c>
       <c r="D22">
-        <v>1.024422640080926</v>
+        <v>0.9778729518619879</v>
       </c>
       <c r="E22">
-        <v>1.020829245222318</v>
+        <v>0.9615191963655664</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028344634122517</v>
+        <v>1.027596915468827</v>
       </c>
       <c r="J22">
-        <v>1.026591727211807</v>
+        <v>0.9792441627966684</v>
       </c>
       <c r="K22">
-        <v>1.028177064904007</v>
+        <v>0.9938958740553235</v>
       </c>
       <c r="L22">
-        <v>1.024597964623779</v>
+        <v>0.9778935517770182</v>
       </c>
       <c r="N22">
-        <v>1.028049605216165</v>
+        <v>0.9806348018287149</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020166912481828</v>
+        <v>0.9492392780260255</v>
       </c>
       <c r="D23">
-        <v>1.024807349553865</v>
+        <v>0.9802592299516728</v>
       </c>
       <c r="E23">
-        <v>1.021281969926988</v>
+        <v>0.9641990160843629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028464758621441</v>
+        <v>1.0286415287061</v>
       </c>
       <c r="J23">
-        <v>1.026985709244336</v>
+        <v>0.9816610283018614</v>
       </c>
       <c r="K23">
-        <v>1.028491102277542</v>
+        <v>0.9959100199307506</v>
       </c>
       <c r="L23">
-        <v>1.024979458224973</v>
+        <v>0.9801845368792476</v>
       </c>
       <c r="N23">
-        <v>1.02844414674837</v>
+        <v>0.9830550995601439</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022248631940323</v>
+        <v>0.9617434829395123</v>
       </c>
       <c r="D24">
-        <v>1.026317945878036</v>
+        <v>0.9892998358406738</v>
       </c>
       <c r="E24">
-        <v>1.023061768220789</v>
+        <v>0.974360839816472</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028931997438964</v>
+        <v>1.032560999670729</v>
       </c>
       <c r="J24">
-        <v>1.028532120289565</v>
+        <v>0.9907980976433872</v>
       </c>
       <c r="K24">
-        <v>1.029722145852951</v>
+        <v>1.003517500664749</v>
       </c>
       <c r="L24">
-        <v>1.026477609535238</v>
+        <v>0.9888536824148138</v>
       </c>
       <c r="N24">
-        <v>1.029992753874659</v>
+        <v>0.9922051445881711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024656430660462</v>
+        <v>0.9753228118686865</v>
       </c>
       <c r="D25">
-        <v>1.028062830194737</v>
+        <v>0.999142209583505</v>
       </c>
       <c r="E25">
-        <v>1.025122051540598</v>
+        <v>0.9854451789419904</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029462495579617</v>
+        <v>1.036750034062439</v>
       </c>
       <c r="J25">
-        <v>1.030317169452591</v>
+        <v>1.00071018978229</v>
       </c>
       <c r="K25">
-        <v>1.031139875397768</v>
+        <v>1.011753856253869</v>
       </c>
       <c r="L25">
-        <v>1.028208521096283</v>
+        <v>0.9982737215567377</v>
       </c>
       <c r="N25">
-        <v>1.031780338012245</v>
+        <v>1.002131313034844</v>
       </c>
     </row>
   </sheetData>
